--- a/output/season_of_the_wolf_2020.xlsx
+++ b/output/season_of_the_wolf_2020.xlsx
@@ -76,7 +76,7 @@
     <t>Poisound</t>
   </si>
   <si>
-    <t>iluxa228</t>
+    <t>BigKukuRUzina35</t>
   </si>
   <si>
     <t>Green-Knight</t>
@@ -97,7 +97,7 @@
     <t>五花膘</t>
   </si>
   <si>
-    <t>苏墨</t>
+    <t>萌萌小西几</t>
   </si>
   <si>
     <t>BaCR7</t>
@@ -112,7 +112,7 @@
     <t>幻影流年</t>
   </si>
   <si>
-    <t>Sh1ro1</t>
+    <t>倒惹</t>
   </si>
   <si>
     <t>SpyroZA</t>
@@ -136,7 +136,7 @@
     <t>magpie131</t>
   </si>
   <si>
-    <t>xCyBerZz</t>
+    <t>xXxd4Rkk3V1nxXxD</t>
   </si>
   <si>
     <t>Bart933</t>
@@ -172,7 +172,7 @@
     <t>LpHanachan</t>
   </si>
   <si>
-    <t>IDONTFLINCH</t>
+    <t>Danirai</t>
   </si>
   <si>
     <t>Javis99</t>
@@ -196,10 +196,10 @@
     <t>InfernZ</t>
   </si>
   <si>
-    <t>_daruma</t>
-  </si>
-  <si>
-    <t>wangid1</t>
+    <t>Koumakis</t>
+  </si>
+  <si>
+    <t>wangid2021</t>
   </si>
   <si>
     <t>Kar5555</t>
@@ -208,7 +208,7 @@
     <t>予然杜</t>
   </si>
   <si>
-    <t>TA_JMJWilson</t>
+    <t>JMJWilson23</t>
   </si>
   <si>
     <t>SemperEU</t>
@@ -235,7 +235,7 @@
     <t>Freddybabes</t>
   </si>
   <si>
-    <t>Shupe_Mage</t>
+    <t>swim_strim</t>
   </si>
   <si>
     <t>EricZjn</t>
@@ -277,7 +277,7 @@
     <t>MrSweetPiggy</t>
   </si>
   <si>
-    <t>IDIsbanace</t>
+    <t>MrDisbalance</t>
   </si>
   <si>
     <t>VilleKS</t>
@@ -376,7 +376,7 @@
     <t>Nekkrous</t>
   </si>
   <si>
-    <t>小新哥</t>
+    <t>五石散人</t>
   </si>
   <si>
     <t>P_A_L_D_I</t>
@@ -442,7 +442,7 @@
     <t>alllkotraz</t>
   </si>
   <si>
-    <t>Shadow1932</t>
+    <t>__Shad0w__</t>
   </si>
   <si>
     <t>TN_sanxesss</t>
@@ -466,7 +466,7 @@
     <t>윤스팸</t>
   </si>
   <si>
-    <t>Hippotompotomus</t>
+    <t>BraziI_is_in_the_chat</t>
   </si>
   <si>
     <t>Vika73</t>
@@ -595,7 +595,7 @@
     <t>Kloze01</t>
   </si>
   <si>
-    <t>CooperIsalnd</t>
+    <t>奇萨尔皮尼</t>
   </si>
   <si>
     <t>希望wish</t>
@@ -841,7 +841,7 @@
     <t>bladerunner0042</t>
   </si>
   <si>
-    <t>Arnn12</t>
+    <t>Arn12</t>
   </si>
   <si>
     <t>Barkam</t>
@@ -889,7 +889,7 @@
     <t>泥驴仔</t>
   </si>
   <si>
-    <t>赫妞佩妞特</t>
+    <t>letigo</t>
   </si>
   <si>
     <t>Nimraphel</t>
@@ -1177,7 +1177,7 @@
     <t>Vitussur</t>
   </si>
   <si>
-    <t>Ragamuffin-</t>
+    <t>Ragamuff1n</t>
   </si>
   <si>
     <t>August_viva</t>
@@ -1207,7 +1207,7 @@
     <t>身经百战的长者</t>
   </si>
   <si>
-    <t>doll.15762</t>
+    <t>DoLLLLL</t>
   </si>
   <si>
     <t>時透無一郎</t>
@@ -1228,7 +1228,7 @@
     <t>k1irving</t>
   </si>
   <si>
-    <t>陽陽瑪</t>
+    <t>埃斯特庄园的喷泉</t>
   </si>
   <si>
     <t>arturpann</t>
@@ -1270,7 +1270,7 @@
     <t>DexterOccupied</t>
   </si>
   <si>
-    <t>Mycartol</t>
+    <t>TheFuriousBean</t>
   </si>
   <si>
     <t>南瓜哥哥</t>
@@ -1300,7 +1300,7 @@
     <t>Tchully420</t>
   </si>
   <si>
-    <t>我的星冰乐去冰</t>
+    <t>歼十咩咩子</t>
   </si>
   <si>
     <t>urtaomi</t>
@@ -1390,7 +1390,7 @@
     <t>FelixHaazda</t>
   </si>
   <si>
-    <t>morelife44</t>
+    <t>-_V1PER_-</t>
   </si>
   <si>
     <t>marsmxm</t>
@@ -1585,7 +1585,7 @@
     <t>Meister_Lederhut</t>
   </si>
   <si>
-    <t>BlueByou</t>
+    <t>mabood71</t>
   </si>
   <si>
     <t>reaver_mix</t>
@@ -1618,7 +1618,7 @@
     <t>Sunake</t>
   </si>
   <si>
-    <t>数字没了就行</t>
+    <t>hn2008</t>
   </si>
   <si>
     <t>mannyyy</t>
@@ -1633,7 +1633,7 @@
     <t>Walnussschale</t>
   </si>
   <si>
-    <t>vezzy7890</t>
+    <t>Gw3ntPunk</t>
   </si>
   <si>
     <t>gulox2</t>
@@ -1753,7 +1753,7 @@
     <t>Marcest</t>
   </si>
   <si>
-    <t>J.Constantine</t>
+    <t>LGC_Constantine</t>
   </si>
   <si>
     <t>昆特蛙</t>
@@ -1822,7 +1822,7 @@
     <t>VastBoxerzZ</t>
   </si>
   <si>
-    <t>jesulete</t>
+    <t>Maurandi</t>
   </si>
   <si>
     <t>iNS_Amnesiac</t>
@@ -1933,7 +1933,7 @@
     <t>military_bottle</t>
   </si>
   <si>
-    <t>lskildum</t>
+    <t>Sound_of_Snow</t>
   </si>
   <si>
     <t>Dimedrole</t>
@@ -1954,7 +1954,7 @@
     <t>SsadnesS_God</t>
   </si>
   <si>
-    <t>子骞嘿帅</t>
+    <t>子谦嘿帅</t>
   </si>
   <si>
     <t>Krilla</t>
@@ -2020,7 +2020,7 @@
     <t>Ivan-IV</t>
   </si>
   <si>
-    <t>Casper_01</t>
+    <t>_C4SPER</t>
   </si>
   <si>
     <t>Furik01</t>
@@ -2059,7 +2059,7 @@
     <t>Lortie</t>
   </si>
   <si>
-    <t>payalnik24</t>
+    <t>RifDimashq</t>
   </si>
   <si>
     <t>cantarellka</t>
@@ -2068,7 +2068,7 @@
     <t>tomekin</t>
   </si>
   <si>
-    <t>dnt1997</t>
+    <t>格城</t>
   </si>
   <si>
     <t>Gwentzilla777</t>
@@ -2101,7 +2101,7 @@
     <t>reductioninforce</t>
   </si>
   <si>
-    <t>panosnecroonn</t>
+    <t>PanosNecroonn</t>
   </si>
   <si>
     <t>DS-61-2</t>
@@ -2254,7 +2254,7 @@
     <t>Reanqwer</t>
   </si>
   <si>
-    <t>김이박</t>
+    <t>느그</t>
   </si>
   <si>
     <t>relevaria</t>
@@ -2428,7 +2428,7 @@
     <t>Jakub1898</t>
   </si>
   <si>
-    <t>AenEIIe</t>
+    <t>eIIefan</t>
   </si>
   <si>
     <t>zloyxoxol</t>
@@ -2470,7 +2470,7 @@
     <t>LastPharaoh</t>
   </si>
   <si>
-    <t>syzxcjez1997</t>
+    <t>黒幕組</t>
   </si>
   <si>
     <t>Denver6073</t>
@@ -2533,7 +2533,7 @@
     <t>陆夕缘</t>
   </si>
   <si>
-    <t>风祝</t>
+    <t>DestinyDraw16</t>
   </si>
   <si>
     <t>XaoAsakura</t>
@@ -2605,7 +2605,7 @@
     <t>阿贝赛克斯</t>
   </si>
   <si>
-    <t>Daddy_E</t>
+    <t>-UwU</t>
   </si>
   <si>
     <t>SpizDill</t>
@@ -2659,7 +2659,7 @@
     <t>Basil6001</t>
   </si>
   <si>
-    <t>FallenAngel_666</t>
+    <t>RockStar_666</t>
   </si>
   <si>
     <t>myriwe</t>
@@ -2716,13 +2716,13 @@
     <t>StealBeak</t>
   </si>
   <si>
-    <t>方块游戏平台小海</t>
-  </si>
-  <si>
-    <t>MastiGame</t>
-  </si>
-  <si>
-    <t>C.Schneider</t>
+    <t>已是过往云烟</t>
+  </si>
+  <si>
+    <t>Domm92</t>
+  </si>
+  <si>
+    <t>Der_Nekker</t>
   </si>
   <si>
     <t>宝栋孙</t>
@@ -2743,7 +2743,7 @@
     <t>Racheal'sEcho</t>
   </si>
   <si>
-    <t>天一.15865</t>
+    <t>穹铭</t>
   </si>
   <si>
     <t>silence.715</t>
@@ -2752,13 +2752,13 @@
     <t>Habberdasher</t>
   </si>
   <si>
-    <t>joypost_</t>
+    <t>50iq</t>
   </si>
   <si>
     <t>完全没想好叫什么啊</t>
   </si>
   <si>
-    <t>nerov47</t>
+    <t>Nerosyrian44</t>
   </si>
   <si>
     <t>Selandr</t>
@@ -2938,7 +2938,7 @@
     <t>DemonBiatch</t>
   </si>
   <si>
-    <t>是不是有点犟嘴了</t>
+    <t>闪电五连鞭</t>
   </si>
   <si>
     <t>SebastienLeclair</t>
@@ -2962,7 +2962,7 @@
     <t>野比饭</t>
   </si>
   <si>
-    <t>notathrowaway</t>
+    <t>GWENTPartner</t>
   </si>
   <si>
     <t>szczu1pak</t>
@@ -2998,7 +2998,7 @@
     <t>BestSammer</t>
   </si>
   <si>
-    <t>pech_15</t>
+    <t>l_PeChKa_l</t>
   </si>
   <si>
     <t>Qbase101</t>
@@ -3130,7 +3130,7 @@
     <t>deads17</t>
   </si>
   <si>
-    <t>_Donquixote_</t>
+    <t>CR_San</t>
   </si>
   <si>
     <t>oniicham</t>
@@ -3151,7 +3151,7 @@
     <t>Gregory_Black</t>
   </si>
   <si>
-    <t>么么哒的程程程程程</t>
+    <t>爱吃胖丁的鸡腿</t>
   </si>
   <si>
     <t>비익련리</t>
@@ -3259,7 +3259,7 @@
     <t>gwont42</t>
   </si>
   <si>
-    <t>iggyBOT</t>
+    <t>Morsiketer911</t>
   </si>
   <si>
     <t>CKPok</t>
@@ -3403,7 +3403,7 @@
     <t>Eduardikovich</t>
   </si>
   <si>
-    <t>Anatoliymar</t>
+    <t>Carry_me86</t>
   </si>
   <si>
     <t>Mozekk</t>
@@ -3424,7 +3424,7 @@
     <t>ersh99</t>
   </si>
   <si>
-    <t>akke7</t>
+    <t>KabukiQueen</t>
   </si>
   <si>
     <t>SH-Cougan</t>
@@ -3466,7 +3466,7 @@
     <t>4uma</t>
   </si>
   <si>
-    <t>Player_Bot</t>
+    <t>Passive-Bot</t>
   </si>
   <si>
     <t>rader2008</t>
@@ -3553,7 +3553,7 @@
     <t>养远安</t>
   </si>
   <si>
-    <t>Mr.Lzh</t>
+    <t>PRINCIPLES.</t>
   </si>
   <si>
     <t>Mihail_Toptygin</t>
@@ -3592,7 +3592,7 @@
     <t>Pszczola10</t>
   </si>
   <si>
-    <t>unlivredont</t>
+    <t>Kellhours93</t>
   </si>
   <si>
     <t>Tempik38</t>
@@ -3631,7 +3631,7 @@
     <t>mramigop51</t>
   </si>
   <si>
-    <t>Gomaji</t>
+    <t>동탄초등학교러브젤방문판매원엄준식</t>
   </si>
   <si>
     <t>Link0zZ</t>
@@ -3718,7 +3718,7 @@
     <t>icesakula</t>
   </si>
   <si>
-    <t>Gwent867</t>
+    <t>PATRIOT.3.6.9</t>
   </si>
   <si>
     <t>battletoad83new1</t>
@@ -3775,7 +3775,7 @@
     <t>fantastycrane</t>
   </si>
   <si>
-    <t>Chaborz.</t>
+    <t>Chuvash.</t>
   </si>
   <si>
     <t>arenado</t>
@@ -3823,7 +3823,7 @@
     <t>Mr.Vano</t>
   </si>
   <si>
-    <t>Idzanagi666</t>
+    <t>Ebriosorum</t>
   </si>
   <si>
     <t>Beheadead</t>
@@ -3844,7 +3844,7 @@
     <t>EastanGorilla</t>
   </si>
   <si>
-    <t>Ann茂</t>
+    <t>お持ち帰り</t>
   </si>
   <si>
     <t>GoudanLi</t>
@@ -4054,7 +4054,7 @@
     <t>tuetaron</t>
   </si>
   <si>
-    <t>qelu</t>
+    <t>exhaust_pipe</t>
   </si>
   <si>
     <t>萌萌邪王真眼是最强的</t>
@@ -4093,7 +4093,7 @@
     <t>hykroy</t>
   </si>
   <si>
-    <t>Geno_Of_Rivia</t>
+    <t>Geno_Supremo</t>
   </si>
   <si>
     <t>eillinggel</t>
@@ -4129,7 +4129,7 @@
     <t>Zireael1991</t>
   </si>
   <si>
-    <t>叇囆壨奰巐幰斸斖朇欓氎灥獿</t>
+    <t>老版来一罐500听的崂山啤酒う</t>
   </si>
   <si>
     <t>Levaju</t>
@@ -4213,10 +4213,10 @@
     <t>DuncanMacLe0d</t>
   </si>
   <si>
-    <t>Gerald102</t>
-  </si>
-  <si>
-    <t>你的笑容由我守护i</t>
+    <t>Gerald102s</t>
+  </si>
+  <si>
+    <t>莫把湖面倒影当成夜空繁星</t>
   </si>
   <si>
     <t>佛光会</t>
@@ -4357,7 +4357,7 @@
     <t>Lukesoli</t>
   </si>
   <si>
-    <t>D3athwiza</t>
+    <t>Deathwiza</t>
   </si>
   <si>
     <t>Erdoganishe2</t>
@@ -4393,7 +4393,7 @@
     <t>scrratchy</t>
   </si>
   <si>
-    <t>痛苦使我进步</t>
+    <t>信仰hy</t>
   </si>
   <si>
     <t>H0m3wr3ck3r</t>
@@ -4504,7 +4504,7 @@
     <t>BobrDobrr</t>
   </si>
   <si>
-    <t>Hatem94</t>
+    <t>hasharef</t>
   </si>
   <si>
     <t>papasashko</t>
@@ -4777,7 +4777,7 @@
     <t>不粗不是大肌霸</t>
   </si>
   <si>
-    <t>Cyphate</t>
+    <t>Crabrave</t>
   </si>
   <si>
     <t>BaconFat00</t>
@@ -4801,7 +4801,7 @@
     <t>Phlereous</t>
   </si>
   <si>
-    <t>卡牌大师吹斯特</t>
+    <t>17张牌你能秒我我当场把这个电脑屏幕吃掉</t>
   </si>
   <si>
     <t>Silverrio</t>
@@ -4915,7 +4915,7 @@
     <t>AsAsSino142</t>
   </si>
   <si>
-    <t>重庆周杰伦</t>
+    <t>想和球哥舌吻</t>
   </si>
   <si>
     <t>kirr91</t>
@@ -5044,10 +5044,10 @@
     <t>DasB0nkers</t>
   </si>
   <si>
-    <t>Bastion99</t>
-  </si>
-  <si>
-    <t>InvincibleHolden</t>
+    <t>Karasmai</t>
+  </si>
+  <si>
+    <t>完美男性</t>
   </si>
   <si>
     <t>marco98761</t>
@@ -5281,7 +5281,7 @@
     <t>浪味仙_</t>
   </si>
   <si>
-    <t>郝大宝</t>
+    <t>赫大宝</t>
   </si>
   <si>
     <t>Shadowcauliflower</t>
@@ -5431,7 +5431,7 @@
     <t>SaulGoodmen</t>
   </si>
   <si>
-    <t>KOI999</t>
+    <t>恩辟希</t>
   </si>
   <si>
     <t>Sasha_09</t>
@@ -5488,7 +5488,7 @@
     <t>雁霜寒透幕</t>
   </si>
   <si>
-    <t>Soul_of_Alex</t>
+    <t>Dramaturgia.</t>
   </si>
   <si>
     <t>Fatalord</t>
@@ -5554,7 +5554,7 @@
     <t>payrav</t>
   </si>
   <si>
-    <t>RacyMayhem</t>
+    <t>Airish62</t>
   </si>
   <si>
     <t>trwi</t>
@@ -5581,7 +5581,7 @@
     <t>최승원172</t>
   </si>
   <si>
-    <t>PigshoofBig</t>
+    <t>可乐可不乐</t>
   </si>
   <si>
     <t>bennihana12</t>
@@ -5629,7 +5629,7 @@
     <t>viatsiuta</t>
   </si>
   <si>
-    <t>Tobi-93</t>
+    <t>-Darman-</t>
   </si>
   <si>
     <t>达克妮斯</t>
@@ -5719,7 +5719,7 @@
     <t>ChermeleuCristian</t>
   </si>
   <si>
-    <t>徐北游</t>
+    <t>发牌员真是个小天才</t>
   </si>
   <si>
     <t>Angelslotus</t>
@@ -5761,7 +5761,7 @@
     <t>zym2hr</t>
   </si>
   <si>
-    <t>DecentMurloc</t>
+    <t>saymeow01</t>
   </si>
   <si>
     <t>TimePrime01</t>
@@ -5866,7 +5866,7 @@
     <t>又是你这厮</t>
   </si>
   <si>
-    <t>mdebicky</t>
+    <t>Emdem</t>
   </si>
   <si>
     <t>misterhabbla1</t>
@@ -5941,7 +5941,7 @@
     <t>Kubson3gd</t>
   </si>
   <si>
-    <t>-Mycology-</t>
+    <t>Gravitytheory</t>
   </si>
   <si>
     <t>superlucky55555</t>
@@ -6097,7 +6097,7 @@
     <t>yesong369</t>
   </si>
   <si>
-    <t>_im_your_joy</t>
+    <t>imyour_joy</t>
   </si>
   <si>
     <t>Marcus.Quinn</t>
@@ -6205,7 +6205,7 @@
     <t>Love_Generation</t>
   </si>
   <si>
-    <t>陨落的谜团</t>
+    <t>三分归元气七分靠运气</t>
   </si>
   <si>
     <t>albis.198</t>
@@ -6214,7 +6214,7 @@
     <t>乐圜工程组</t>
   </si>
   <si>
-    <t>最美莫过兰</t>
+    <t>Paper_Love</t>
   </si>
   <si>
     <t>北枳君</t>
@@ -6274,7 +6274,7 @@
     <t>Simerc</t>
   </si>
   <si>
-    <t>.LiMBO.</t>
+    <t>iCookMeth</t>
   </si>
   <si>
     <t>kl12joseph</t>
@@ -6475,7 +6475,7 @@
     <t>woxihuannvyemo</t>
   </si>
   <si>
-    <t>9kjer</t>
+    <t>DziewiateSerce</t>
   </si>
   <si>
     <t>Yy00</t>
@@ -6613,7 +6613,7 @@
     <t>Lalkarz</t>
   </si>
   <si>
-    <t>GAEAMomBOOM</t>
+    <t>GAEAGabbage</t>
   </si>
   <si>
     <t>Sofazperca</t>
@@ -6664,7 +6664,7 @@
     <t>Maganus</t>
   </si>
   <si>
-    <t>无心.68680</t>
+    <t>老子才是无心</t>
   </si>
   <si>
     <t>TonyUnorthodox</t>
@@ -6676,10 +6676,10 @@
     <t>MajnoonLayla</t>
   </si>
   <si>
-    <t>横贯八方</t>
-  </si>
-  <si>
-    <t>滴滴滴滴滴滴滴滴滴</t>
+    <t>炸鱼苏</t>
+  </si>
+  <si>
+    <t>韩老板是我</t>
   </si>
   <si>
     <t>ThiagoBS1981</t>
@@ -6763,7 +6763,7 @@
     <t>GoldenSerpent</t>
   </si>
   <si>
-    <t>永远都会注视着诺艾尔团长的底层团员</t>
+    <t>与艾莉欧团长在秋天的单相思</t>
   </si>
   <si>
     <t>Jaman_Tarakan</t>
@@ -6775,7 +6775,7 @@
     <t>jesserking</t>
   </si>
   <si>
-    <t>EvgTsar</t>
+    <t>Optimus_vir</t>
   </si>
   <si>
     <t>Ivan2610</t>
@@ -6838,7 +6838,7 @@
     <t>GundamExia</t>
   </si>
   <si>
-    <t>kmikolajek2000</t>
+    <t>LucjanK</t>
   </si>
   <si>
     <t>Siri-</t>
@@ -7039,7 +7039,7 @@
     <t>YE5tail96</t>
   </si>
   <si>
-    <t>REVERT-SIHIL</t>
+    <t>Buff-Sihil-plz</t>
   </si>
   <si>
     <t>DINBAO</t>
@@ -7261,7 +7261,7 @@
     <t>Maris_</t>
   </si>
   <si>
-    <t>vakrat</t>
+    <t>CrimsonKing88</t>
   </si>
   <si>
     <t>AgentSmith92</t>
@@ -7303,7 +7303,7 @@
     <t>一口一个生煎包</t>
   </si>
   <si>
-    <t>KevinRanDall</t>
+    <t>JKSeal</t>
   </si>
   <si>
     <t>Black_Jessie</t>
@@ -7351,7 +7351,7 @@
     <t>JohnnySung</t>
   </si>
   <si>
-    <t>Nardist_ot_poga</t>
+    <t>Your__Majesty</t>
   </si>
   <si>
     <t>P8tWi</t>
@@ -7474,7 +7474,7 @@
     <t>Flowzera</t>
   </si>
   <si>
-    <t>TrayceZz</t>
+    <t>RegarHood</t>
   </si>
   <si>
     <t>b.koyama6</t>
@@ -7492,7 +7492,7 @@
     <t>兮若流风</t>
   </si>
   <si>
-    <t>G1z0</t>
+    <t>3a6aBHo</t>
   </si>
   <si>
     <t>pocket_at</t>
@@ -7696,7 +7696,7 @@
     <t>曾经年轻</t>
   </si>
   <si>
-    <t>angel_zero</t>
+    <t>爱打桩的杰洛特丶</t>
   </si>
   <si>
     <t>kingayaya</t>
@@ -7714,7 +7714,7 @@
     <t>phlama</t>
   </si>
   <si>
-    <t>JieGwent</t>
+    <t>Everglow2812</t>
   </si>
   <si>
     <t>Matthiaslibero</t>
@@ -7765,7 +7765,7 @@
     <t>vica2001</t>
   </si>
   <si>
-    <t>KingWeasel84</t>
+    <t>JackBauer84</t>
   </si>
   <si>
     <t>Wongwaikit</t>
@@ -7888,7 +7888,7 @@
     <t>我这手镜子大师即将绝杀</t>
   </si>
   <si>
-    <t>Hydrocrack</t>
+    <t>GuruMeditation_</t>
   </si>
   <si>
     <t>膝盖中了一箭的老杰</t>
@@ -7918,7 +7918,7 @@
     <t>BGHank</t>
   </si>
   <si>
-    <t>煦神天下</t>
+    <t>wtx123</t>
   </si>
   <si>
     <t>Ladochka</t>
@@ -8056,7 +8056,7 @@
     <t>月色暗影</t>
   </si>
   <si>
-    <t>Alternis_dim</t>
+    <t>AlternisGoG</t>
   </si>
   <si>
     <t>Going-ing</t>
@@ -8170,7 +8170,7 @@
     <t>SirKamilPL</t>
   </si>
   <si>
-    <t>侭此侕已</t>
+    <t>仅此侕已</t>
   </si>
   <si>
     <t>AeddGynvaeI</t>
@@ -8227,7 +8227,7 @@
     <t>7sword</t>
   </si>
   <si>
-    <t>Gomosio</t>
+    <t>BenDjarin</t>
   </si>
   <si>
     <t>Johaggis</t>
@@ -8272,7 +8272,7 @@
     <t>从此萧郎是路人</t>
   </si>
   <si>
-    <t>murasige-822</t>
+    <t>荒木村重</t>
   </si>
   <si>
     <t>AlexLaddie</t>
@@ -8308,7 +8308,7 @@
     <t>Kamidoro</t>
   </si>
   <si>
-    <t>御风神行</t>
+    <t>女人只会影响我出牌的速度</t>
   </si>
   <si>
     <t>GusevAlexandr</t>
@@ -8563,7 +8563,7 @@
     <t>SY.312</t>
   </si>
   <si>
-    <t>EL3VN</t>
+    <t>ZyEAL</t>
   </si>
   <si>
     <t>LingDingDong</t>
